--- a/Software/Negative FCF/SentinelOne.xlsx
+++ b/Software/Negative FCF/SentinelOne.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/Negative FCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/Negative FCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD32121-85F4-3D4E-A046-612D14CFC129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300B95B3-D95E-2543-9ABD-37974A967DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$106:$B$106</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$19:$B$19</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$A$3:$B$3</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$C$106:$E$106</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$C$19:$E$19</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$C$3:$E$3</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">'Sheet 1'!$A$3:$B$106</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">'Sheet 1'!$C$3,'Sheet 1'!$C$19,'Sheet 1'!$C$106</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">'Sheet 1'!$D$3,'Sheet 1'!$D$19,'Sheet 1'!$D$106</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">'Sheet 1'!$E$3,'Sheet 1'!$E$19,'Sheet 1'!$E$106</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,8 +44,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -317,9 +366,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>SentinelOne</t>
-  </si>
-  <si>
     <t>Revenue Growth YoY</t>
   </si>
   <si>
@@ -408,18 +454,127 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Weighted Average Cost of Capital</t>
+  </si>
+  <si>
+    <t>Cost of Debt Calculation</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Short Term Debt</t>
+  </si>
+  <si>
+    <t>Long Term Debt</t>
+  </si>
+  <si>
+    <t>Cost of Debt</t>
+  </si>
+  <si>
+    <t>Income Tax Expense</t>
+  </si>
+  <si>
+    <t>Effective Tax Rate</t>
+  </si>
+  <si>
+    <t>Cost of Debt*(1-t)</t>
+  </si>
+  <si>
+    <t>Cost of Equity Calculation</t>
+  </si>
+  <si>
+    <t>Risk Free Rate</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Market Return</t>
+  </si>
+  <si>
+    <t>Cost of Equity</t>
+  </si>
+  <si>
+    <t>Weight of Debt + Equity Calculation</t>
+  </si>
+  <si>
+    <t>Total Debt</t>
+  </si>
+  <si>
+    <t>Weight of Debt</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t>Weight of Equity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>WACC Calculation</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>Proj. Free Cash Flow</t>
+  </si>
+  <si>
+    <t>FCF Growth Rate</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>Perpetual Growth Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate (WACC)</t>
+  </si>
+  <si>
+    <t>Discounted Cash Flow Valuation</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>Cash + Securities</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>Intrinsic Value</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Upside/Downside</t>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -509,8 +664,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,8 +710,32 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -640,11 +846,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -704,9 +964,88 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -719,6 +1058,1496 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>S</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1503259112478498E-2"/>
+          <c:y val="0.14021424261933194"/>
+          <c:w val="0.8715430985034156"/>
+          <c:h val="0.73774172917545433"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$3:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>- -</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>93056000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204799000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>422179000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1727-5841-9EF2-4FA4AE20883A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$19:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>EBITDA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>- -</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-112875000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-261401000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-384271000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1727-5841-9EF2-4FA4AE20883A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$106:$B$106</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Free Cash Flow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>- -</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$106:$E$106</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-72835000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-105882000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-208033000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1727-5841-9EF2-4FA4AE20883A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1424650752"/>
+        <c:axId val="1424653648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1424650752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1424653648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1424653648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1424650752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31775303749282996"/>
+          <c:y val="0.92046862754808378"/>
+          <c:w val="0.36449392501434008"/>
+          <c:h val="5.0164590791047445E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDA98FD-47F5-7635-30BE-282F9BE1B886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=c2kadm&amp;q=XNYS%3aS&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>SENTINELONE, INC. (XNYS:S)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>c2kadm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>38.57</v>
+    <v>12.69</v>
+    <v>1.9490000000000001</v>
+    <v>0.38</v>
+    <v>2.3355999999999998E-2</v>
+    <v>0</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>SentinelOne, Inc. is a cybersecurity company that has developed an artificial intelligence (AI) extended detection and response (XDR) platform to enable autonomous cybersecurity defense. XDR platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real-time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
+    <v>2100</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
+    <v>16.715</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.999089895311</v>
+    <v>0</v>
+    <v>15.81</v>
+    <v>4805539650</v>
+    <v>SENTINELONE, INC.</v>
+    <v>SENTINELONE, INC.</v>
+    <v>16.02</v>
+    <v>0</v>
+    <v>16.27</v>
+    <v>16.649999999999999</v>
+    <v>16.649999999999999</v>
+    <v>288621000</v>
+    <v>S</v>
+    <v>SENTINELONE, INC. (XNYS:S)</v>
+    <v>8628573</v>
+    <v>7334146</v>
+    <v>2013</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1018,13 +2847,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL107"/>
+  <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,8 +2864,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2020</v>
@@ -1130,21 +2959,21 @@
         <v>1750000000</v>
       </c>
       <c r="K3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="N3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="e">
@@ -1160,7 +2989,7 @@
         <v>1.061430964018379</v>
       </c>
       <c r="F4" s="16">
-        <f t="shared" ref="F4:J4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:G4" si="0">(F3/E3)-1</f>
         <v>0.5041013409004238</v>
       </c>
       <c r="G4" s="16">
@@ -1255,16 +3084,16 @@
         <v>428625000</v>
       </c>
       <c r="K6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="M6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -1323,14 +3152,14 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:F9" si="4">C8/C3</f>
+        <f t="shared" ref="C9:E9" si="4">C8/C3</f>
         <v>0.67103679504814306</v>
       </c>
       <c r="D9" s="15">
@@ -1344,16 +3173,16 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="K9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -1424,28 +3253,28 @@
         <v>473570000</v>
       </c>
       <c r="K12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="M12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:F13" si="5">C12/C3</f>
+        <f t="shared" ref="C13:E13" si="5">C12/C3</f>
         <v>1.147685264786795</v>
       </c>
       <c r="D13" s="15">
@@ -1509,16 +3338,16 @@
         <v>680578000</v>
       </c>
       <c r="K15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="M15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="N15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -1544,15 +3373,15 @@
       </c>
       <c r="L16" s="27">
         <f>M101/E3</f>
-        <v>9.3562209394593285</v>
+        <v>11.382706506008114</v>
       </c>
       <c r="M16" s="27">
         <f>M101/E28</f>
-        <v>-10.439103029982689</v>
+        <v>-12.700132536966317</v>
       </c>
       <c r="N16" s="28">
         <f>M101/E106</f>
-        <v>-18.987372195757406</v>
+        <v>-23.09989112304298</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -1590,7 +3419,7 @@
         <v>29721000</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -1616,7 +3445,7 @@
     </row>
     <row r="20" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -1774,7 +3603,7 @@
     </row>
     <row r="29" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -1879,7 +3708,7 @@
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23" t="e">
@@ -1887,7 +3716,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:F35" si="6">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:E35" si="6">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="23">
@@ -2250,7 +4079,9 @@
       <c r="D56" s="1">
         <v>4613000</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -2333,7 +4164,9 @@
       <c r="D61" s="1">
         <v>24467000</v>
       </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
@@ -2643,10 +4476,10 @@
     </row>
     <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:F80" si="7">B79/B3</f>
+        <f t="shared" ref="B80:E80" si="7">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15">
@@ -2663,7 +4496,7 @@
       </c>
       <c r="F80" s="15"/>
     </row>
-    <row r="81" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -2678,7 +4511,7 @@
       </c>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -2695,7 +4528,7 @@
         <v>-44442000</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -2711,8 +4544,12 @@
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="L83" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="M83" s="32"/>
+    </row>
+    <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -2728,8 +4565,12 @@
       <c r="E84" s="1">
         <v>3670000</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="L84" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M84" s="34"/>
+    </row>
+    <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -2743,8 +4584,15 @@
         <v>61577000</v>
       </c>
       <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="L85" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="M85" s="36">
+        <f>E17</f>
+        <v>-1830000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -2760,8 +4608,15 @@
       <c r="E86" s="1">
         <v>-12217000</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="L86" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="M86" s="36">
+        <f>E56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>73</v>
       </c>
@@ -2777,8 +4632,15 @@
       <c r="E87" s="10">
         <v>-193287000</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="L87" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="M87" s="36">
+        <f>E61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -2794,13 +4656,19 @@
       <c r="E88" s="1">
         <v>-18812000</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="M88" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:F89" si="8">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:E89" si="8">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
@@ -2815,9 +4683,15 @@
         <f t="shared" si="8"/>
         <v>4.4559298307116177E-2</v>
       </c>
-      <c r="F89" s="15"/>
-    </row>
-    <row r="90" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="L89" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="M89" s="36">
+        <f>E27</f>
+        <v>-5613000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>75</v>
       </c>
@@ -2833,8 +4707,15 @@
       <c r="E90" s="1">
         <v>-281032000</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="L90" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M90" s="36">
+        <f>E25</f>
+        <v>-383998000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>76</v>
       </c>
@@ -2850,8 +4731,15 @@
       <c r="E91" s="1">
         <v>925185000</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="L91" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="M91" s="38">
+        <f>M89/M90</f>
+        <v>1.4617263631581414E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -2867,8 +4755,15 @@
       <c r="E92" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="L92" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="M92" s="40">
+        <f>M88*(1-M91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -2882,8 +4777,12 @@
         <v>-6641000</v>
       </c>
       <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="L93" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="M93" s="34"/>
+    </row>
+    <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -2899,8 +4798,14 @@
       <c r="E94" s="10">
         <v>-1312666000</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="L94" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="M94" s="41">
+        <v>4.095E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -2916,8 +4821,15 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="L95" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M95" s="42" cm="1">
+        <f t="array" ref="M95">_FV(A1,"Beta")</f>
+        <v>1.9490000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
@@ -2933,8 +4845,14 @@
       <c r="E96" s="1">
         <v>36494000</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L96" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="M96" s="41">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
@@ -2949,6 +4867,13 @@
       </c>
       <c r="E97" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="L97" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="M97" s="40">
+        <f>(M94)+((M95)*(M96-M94))</f>
+        <v>0.12485445000000002</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -2967,8 +4892,12 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L98" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="M98" s="34"/>
+    </row>
+    <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -2984,8 +4913,15 @@
       <c r="E99" s="1">
         <v>-186000</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L99" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="M99" s="36">
+        <f>M86+M87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
@@ -3001,8 +4937,15 @@
       <c r="E100" s="10">
         <v>36308000</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L100" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="M100" s="38">
+        <f>M99/M103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
@@ -3018,11 +4961,15 @@
       <c r="E101" s="1">
         <v>0</v>
       </c>
-      <c r="M101" s="1">
-        <v>3950000000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L101" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="M101" s="43" cm="1">
+        <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
+        <v>4805539650</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
@@ -3038,8 +4985,15 @@
       <c r="E102" s="10">
         <v>1469645000</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L102" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="M102" s="38">
+        <f>M101/M103</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -3054,6 +5008,13 @@
       </c>
       <c r="E103" s="1">
         <v>1672051</v>
+      </c>
+      <c r="L103" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="M103" s="44">
+        <f>M99+M101</f>
+        <v>4805539650</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -3072,10 +5033,14 @@
       <c r="E104" s="11">
         <v>202406000</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L104" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M104" s="34"/>
+    </row>
+    <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -3095,6 +5060,14 @@
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="M105" s="46">
+        <f>(M100*M92)+(M102*M97)</f>
+        <v>0.12485445000000002</v>
+      </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
@@ -3111,6 +5084,36 @@
       </c>
       <c r="E106" s="1">
         <v>-208033000</v>
+      </c>
+      <c r="F106" s="47">
+        <f>E106*(1+$M$106)</f>
+        <v>-277575277.10227603</v>
+      </c>
+      <c r="G106" s="47">
+        <f t="shared" ref="G106:J106" si="9">F106*(1+$M$106)</f>
+        <v>-370364482.83880597</v>
+      </c>
+      <c r="H106" s="47">
+        <f t="shared" si="9"/>
+        <v>-494171712.91488719</v>
+      </c>
+      <c r="I106" s="47">
+        <f t="shared" si="9"/>
+        <v>-659365822.48228025</v>
+      </c>
+      <c r="J106" s="47">
+        <f t="shared" si="9"/>
+        <v>-879781817.72742355</v>
+      </c>
+      <c r="K106" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="L106" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="M106" s="50">
+        <f>(SUM(F4:J4)/5)</f>
+        <v>0.33428483510921858</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3118,20 +5121,164 @@
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+      <c r="J107" s="51">
+        <f>J106*(1+M107)/(M108-M107)</f>
+        <v>-9030908118.4725266</v>
+      </c>
+      <c r="K107" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="L107" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="M107" s="54">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F108" s="51">
+        <f t="shared" ref="F108:H108" si="10">F107+F106</f>
+        <v>-277575277.10227603</v>
+      </c>
+      <c r="G108" s="51">
+        <f t="shared" si="10"/>
+        <v>-370364482.83880597</v>
+      </c>
+      <c r="H108" s="51">
+        <f t="shared" si="10"/>
+        <v>-494171712.91488719</v>
+      </c>
+      <c r="I108" s="51">
+        <f>I107+I106</f>
+        <v>-659365822.48228025</v>
+      </c>
+      <c r="J108" s="51">
+        <f>J107+J106</f>
+        <v>-9910689936.1999493</v>
+      </c>
+      <c r="K108" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="L108" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="M108" s="56">
+        <f>M105</f>
+        <v>0.12485445000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F109" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="G109" s="58"/>
+    </row>
+    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F110" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="G110" s="43">
+        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
+        <v>-6801822100.8887682</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F111" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="G111" s="43">
+        <f>E40</f>
+        <v>623525000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F112" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="G112" s="43">
+        <f>M99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F113" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="G113" s="43">
+        <f>G110+G111-G112</f>
+        <v>-6178297100.8887682</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F114" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G114" s="60" cm="1">
+        <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>288621000</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F115" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="G115" s="62">
+        <f>G113/G114</f>
+        <v>-21.406263234098585</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F116" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G116" s="63" cm="1">
+        <f t="array" ref="G116">_FV(A1,"Price")</f>
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F117" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="G117" s="65">
+        <f>G115/G116-1</f>
+        <v>-2.2856614555014163</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F118" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="G118" s="66" t="str">
+        <f>IF(G115&gt;G116,"BUY","SELL")</f>
+        <v>SELL</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="F109:G109"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/S" display="ROIC.AI | S" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B36" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B74" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C36" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C74" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D74" r:id="rId6" tooltip="https://www.sec.gov/Archives/edgar/data/1583708/000158370822000016/0001583708-22-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D36" r:id="rId7" tooltip="https://www.sec.gov/Archives/edgar/data/1583708/000158370822000016/0001583708-22-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E74" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1583708/000158370822000016/0001583708-22-000016-index.htm" xr:uid="{1D22E1A5-AED1-B946-BE91-8DEF993AEF75}"/>
-    <hyperlink ref="E36" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1583708/000158370822000016/0001583708-22-000016-index.htm" xr:uid="{D1B1AF4A-1754-5C40-89FA-4EB09B3A792F}"/>
-    <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NYSE:S/explorer/revenue_proj" xr:uid="{A5E4CC53-B047-AF46-AC55-7997D2499D6B}"/>
+    <hyperlink ref="B36" r:id="rId1" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B74" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C36" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C74" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D74" r:id="rId5" tooltip="https://www.sec.gov/Archives/edgar/data/1583708/000158370822000016/0001583708-22-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D36" r:id="rId6" tooltip="https://www.sec.gov/Archives/edgar/data/1583708/000158370822000016/0001583708-22-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E74" r:id="rId7" tooltip="https://www.sec.gov/Archives/edgar/data/1583708/000158370822000016/0001583708-22-000016-index.htm" xr:uid="{1D22E1A5-AED1-B946-BE91-8DEF993AEF75}"/>
+    <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1583708/000158370822000016/0001583708-22-000016-index.htm" xr:uid="{D1B1AF4A-1754-5C40-89FA-4EB09B3A792F}"/>
+    <hyperlink ref="F1" r:id="rId9" display="https://finbox.com/NYSE:S/explorer/revenue_proj" xr:uid="{A5E4CC53-B047-AF46-AC55-7997D2499D6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>